--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_OV.xlsx
@@ -3015,7 +3015,7 @@
         <v>660.1628324119033</v>
       </c>
       <c r="E156">
-        <v>850.2001900581832</v>
+        <v>850.2001900581831</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3032,7 +3032,7 @@
         <v>499.1264233095266</v>
       </c>
       <c r="E157">
-        <v>563.1933499331083</v>
+        <v>563.1933499331082</v>
       </c>
     </row>
     <row r="158" spans="1:5">
